--- a/GUI + Reviews/202509/US_CA 200.xlsx
+++ b/GUI + Reviews/202509/US_CA 200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202509\20250908\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202509\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56EEB045-924E-42EC-A666-422C9EB25EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5000E74B-44E7-493A-8AEA-D31B9D59D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="17640" xr2:uid="{4AA0DF4F-1E91-47ED-BE49-8B04FFEBEB03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDBFE8A6-0A8C-47CC-A7E7-81C596ED5292}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2116,18 +2116,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6549953A-8D5B-4F1E-BFD4-1A0AEA3633C2}" name="Universe" displayName="Universe" ref="A1:I201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:I201" xr:uid="{6549953A-8D5B-4F1E-BFD4-1A0AEA3633C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC75C60B-E287-4544-9F4A-D6AB536D24D8}" name="Universe" displayName="Universe" ref="A1:I201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:I201" xr:uid="{CC75C60B-E287-4544-9F4A-D6AB536D24D8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6861A227-DD89-491D-8FC0-09DE1813A40B}" name="Rank" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{334D7087-9B6C-4619-BF71-E58FAA7CC8BD}" name="Ticker" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{F44DB384-0FCD-4F0B-84A4-083AECB87417}" name="Name" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{3F1C04F3-16F9-4EE7-8159-FA57D96A5A55}" name="ISIN" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{795D837B-E7BC-4FB7-B1BB-6286B6DA7EF0}" name="MIC" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F6330FFC-3944-4691-AC6F-A4D0C72F1496}" name="NOSH" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{A7E5E789-07D6-4D75-A550-8ECF982053AF}" name="Price (EUR) " dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{3DFC6471-9567-466A-A35E-05B4027AC29D}" name="Currency (Local)" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9664CC9E-2562-45CB-9F27-D7D6C2C58E8C}" name="12 month aver. turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CD5EE22D-1B1D-4F47-8890-3494DDEBFC25}" name="Rank" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F85F730A-5493-4CE2-B4BD-BA45368974F7}" name="Ticker" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{19FAF1EB-72CF-440B-B37F-AF713291EC4A}" name="Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8E78BF7B-7245-491E-A2EB-FE41D597CF12}" name="ISIN" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{4EEC9EF5-2665-4C42-A632-E48F94E0F021}" name="MIC" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{6F68FE73-FC6D-4C58-AA50-A50257C50E2A}" name="NOSH" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{E7B291C8-14B5-4CCA-8046-6D75BE514EC6}" name="Price (EUR) " dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{E4C85B6B-D160-47B7-9260-7392D27940E9}" name="Currency (Local)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{C3055B50-22DD-4E54-AAF8-60A1A55E67C6}" name="12 month aver. turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2449,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EACED97-DD07-49DD-9905-FFE43D84E3B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F0C804-84EC-4805-A75B-925C31A81D55}">
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
